--- a/trial_2_data.xlsx
+++ b/trial_2_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>SAFIRE II;   Serial number: 607000009;   Firmware: V 2.10 12/2007 Safire2;   XFLUOR4SAFIREII Version: V 4.62n</t>
   </si>
@@ -191,6 +191,27 @@
   </si>
   <si>
     <t>A1 - H12</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>A2, column 8 - 20X diluted</t>
+  </si>
+  <si>
+    <t>A1, column 7 - 12.5X diluted</t>
+  </si>
+  <si>
+    <t>A3, column 9 - 50X diluted</t>
+  </si>
+  <si>
+    <t>A4, column 10 - 125X diluted</t>
+  </si>
+  <si>
+    <t>A5, column 11 - 250X diluted</t>
+  </si>
+  <si>
+    <t>A6, column 12 - 500X diluted</t>
   </si>
 </sst>
 </file>
@@ -566,7 +587,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1120,23 +1141,50 @@
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1"/>
-    <row r="32" spans="1:13" ht="13.5" customHeight="1"/>
-    <row r="33" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="35" ht="13.5" customHeight="1"/>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="13.5" customHeight="1">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="39" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="41" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="42" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="43" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="44" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="45" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="46" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="47" spans="2:2" ht="13.5" customHeight="1"/>
+    <row r="48" spans="2:2" ht="13.5" customHeight="1"/>
     <row r="49" ht="13.5" customHeight="1"/>
     <row r="50" ht="13.5" customHeight="1"/>
     <row r="51" ht="13.5" customHeight="1"/>
